--- a/i_codebooks/D5_DU_for_Template_3.xlsx
+++ b/i_codebooks/D5_DU_for_Template_3.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
   <si>
     <t>medatata_name</t>
   </si>
@@ -750,18 +750,37 @@
     <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per triumester, per pair of trimesters, or any use)</t>
   </si>
   <si>
-    <t>D4_DU_prevalence_MS_in_pregnancy_cohort</t>
+    <t>row_identifier_1_order</t>
+  </si>
+  <si>
+    <t>order to list these rows</t>
+  </si>
+  <si>
+    <t>row_identifier_2_order</t>
+  </si>
+  <si>
+    <t>row_identifier_3_order</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1215,187 +1234,192 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -10097,10 +10121,10 @@
   <dimension ref="A1:K997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10169,7 +10193,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -10189,8 +10213,8 @@
         <v>147</v>
       </c>
       <c r="E3" s="44"/>
-      <c r="G3" s="21" t="s">
-        <v>186</v>
+      <c r="G3" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -10210,8 +10234,8 @@
         <v>156</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="G4" s="21" t="s">
-        <v>186</v>
+      <c r="G4" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -10227,8 +10251,8 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>186</v>
+      <c r="G5" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>26</v>
@@ -10244,8 +10268,8 @@
       <c r="C6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>186</v>
+      <c r="G6" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>26</v>
@@ -10263,7 +10287,9 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="26" t="s">
+        <v>190</v>
+      </c>
       <c r="I7" s="22" t="s">
         <v>26</v>
       </c>
@@ -10282,21 +10308,51 @@
         <v>25</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="G8" s="21" t="s">
-        <v>186</v>
+      <c r="G8" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="22"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="26"/>
       <c r="I9" s="22"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A10" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A11" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
@@ -13644,10 +13700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="25" t="s">
@@ -13661,36 +13717,36 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="31.2" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -13699,11 +13755,11 @@
       <c r="A5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="28" t="s">
         <v>159</v>
       </c>
@@ -13718,11 +13774,11 @@
       <c r="A6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="28" t="s">
         <v>161</v>
       </c>
@@ -13737,11 +13793,11 @@
       <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="28" t="s">
         <v>164</v>
       </c>
@@ -13756,11 +13812,11 @@
       <c r="A8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="28" t="s">
         <v>167</v>
       </c>
@@ -13772,15 +13828,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="33" t="s">
@@ -13910,12 +13966,12 @@
       <c r="A18" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="66" t="s">
@@ -13932,11 +13988,11 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -13945,11 +14001,11 @@
       <c r="A21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="28" t="s">
         <v>50</v>
       </c>
@@ -13964,11 +14020,11 @@
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="28" t="s">
         <v>53</v>
       </c>
@@ -13983,11 +14039,11 @@
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="28" t="s">
         <v>56</v>
       </c>
@@ -14002,11 +14058,11 @@
       <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="28" t="s">
         <v>59</v>
       </c>
@@ -14018,15 +14074,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="33" t="s">
@@ -14153,51 +14209,56 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
@@ -14214,11 +14275,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/i_codebooks/D5_DU_for_Template_3.xlsx
+++ b/i_codebooks/D5_DU_for_Template_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -747,9 +747,6 @@
     <t>numbers to be included in Template 3: Pattern of MS DMT medication use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
   </si>
   <si>
-    <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per triumester, per pair of trimesters, or any use)</t>
-  </si>
-  <si>
     <t>row_identifier_1_order</t>
   </si>
   <si>
@@ -762,7 +759,10 @@
     <t>row_identifier_3_order</t>
   </si>
   <si>
-    <t>D4_DU_prevalence_of_use_MSdrugs_in_MSpregnancy_cohort</t>
+    <t>D4_DU_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
+  <si>
+    <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per trimester, per pair of trimesters, or any use)</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1355,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1382,44 +1411,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1736,8 +1736,8 @@
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>185</v>
+      <c r="B4" s="70" t="s">
+        <v>190</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10120,11 +10120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:H12"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10193,7 +10193,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="E3" s="44"/>
       <c r="G3" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -10252,7 +10252,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>26</v>
@@ -10269,7 +10269,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>26</v>
@@ -10288,7 +10288,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
       <c r="G7" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>26</v>
@@ -10309,20 +10309,20 @@
       </c>
       <c r="D8" s="18"/>
       <c r="G8" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="26"/>
@@ -10330,25 +10330,25 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A11" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="26"/>
@@ -13685,10 +13685,10 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13700,10 +13700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="25" t="s">
@@ -13717,36 +13717,36 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="31.2" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -13755,11 +13755,11 @@
       <c r="A5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="28" t="s">
         <v>159</v>
       </c>
@@ -13774,11 +13774,11 @@
       <c r="A6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="28" t="s">
         <v>161</v>
       </c>
@@ -13793,11 +13793,11 @@
       <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="28" t="s">
         <v>164</v>
       </c>
@@ -13812,11 +13812,11 @@
       <c r="A8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="28" t="s">
         <v>167</v>
       </c>
@@ -13828,15 +13828,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="33" t="s">
@@ -13963,36 +13963,36 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -14001,11 +14001,11 @@
       <c r="A21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="28" t="s">
         <v>50</v>
       </c>
@@ -14020,11 +14020,11 @@
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="28" t="s">
         <v>53</v>
       </c>
@@ -14039,11 +14039,11 @@
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="28" t="s">
         <v>56</v>
       </c>
@@ -14058,11 +14058,11 @@
       <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="28" t="s">
         <v>59</v>
       </c>
@@ -14074,15 +14074,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="33" t="s">
@@ -14209,56 +14209,51 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
@@ -14275,6 +14270,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/i_codebooks/D5_DU_for_Template_3.xlsx
+++ b/i_codebooks/D5_DU_for_Template_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5C468-ED75-4F6C-8F58-5160C50AD9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="180">
   <si>
     <t>medatata_name</t>
   </si>
@@ -333,70 +334,46 @@
     </r>
   </si>
   <si>
-    <t>n1_anydrug_0_anytri</t>
-  </si>
-  <si>
     <t>n2_anydrug_0_anytri</t>
   </si>
   <si>
     <t>n3_anydrug_0_anytri</t>
   </si>
   <si>
-    <t>n1_anydrug_0_notri</t>
-  </si>
-  <si>
     <t>n2_anydrug_0_notri</t>
   </si>
   <si>
     <t>n3_anydrug_0_notri</t>
   </si>
   <si>
-    <t>n1_anydrug_1_anytri</t>
-  </si>
-  <si>
     <t>n2_anydrug_1_anytri</t>
   </si>
   <si>
     <t>n3_anydrug_1_anytri</t>
   </si>
   <si>
-    <t>n1_anydrug_1_notri</t>
-  </si>
-  <si>
     <t>n2_anydrug_1_notri</t>
   </si>
   <si>
     <t>n3_anydrug_1_notri</t>
   </si>
   <si>
-    <t>n1_anydrug_any_tri1only</t>
-  </si>
-  <si>
     <t>n3_anydrug_any_tri1only</t>
   </si>
   <si>
     <t>n2_anydrug_any_tri1only</t>
   </si>
   <si>
-    <t>n1_anydrug_any_tri2only</t>
-  </si>
-  <si>
     <t>n2_anydrug_any_tri2only</t>
   </si>
   <si>
     <t>n3_anydrug_any_tri2only</t>
   </si>
   <si>
-    <t>n1_anydrug_any_tri1tri2only</t>
-  </si>
-  <si>
     <t>n2_anydrug_any_tri1tri2only</t>
   </si>
   <si>
     <t>n3_anydrug_any_tri1tri2only</t>
-  </si>
-  <si>
-    <t>n1_anydrug_any_tri1tri2tri3</t>
   </si>
   <si>
     <t>n2_anydrug_any_tri1tri2tri3</t>
@@ -635,22 +612,10 @@
     <t>whether the row refers to presence or absence of use during pregnancy</t>
   </si>
   <si>
-    <t>n_denominator</t>
-  </si>
-  <si>
     <t>Median number of medications</t>
   </si>
   <si>
-    <t>100*n1/n_denominator</t>
-  </si>
-  <si>
     <t>Number of pregnancies from women with MS exposed to the drug specified in row_identifier_1 during the period identified by row_identifier_2 and by row_identifier_3</t>
-  </si>
-  <si>
-    <t>Number of pregnancies in the MS pregnancy cohort</t>
-  </si>
-  <si>
-    <t>Percentage (reference = n_denominator)</t>
   </si>
   <si>
     <t>tri1only = only during the 1st trimester
@@ -668,67 +633,43 @@
     <t>MSMEDICATION</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_0_anytri</t>
-  </si>
-  <si>
     <t>n3_MSMEDICATION_0_anytri</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_0_notri</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_0_notri</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_0_notri</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_1_anytri</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_1_anytri</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_1_anytri</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_1_notri</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_1_notri</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_1_notri</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_any_tri1only</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_any_tri1only</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_any_tri1only</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_any_tri2only</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_any_tri2only</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_any_tri2only</t>
   </si>
   <si>
-    <t>n1_MSMEDICATION_any_tri1tri2only</t>
-  </si>
-  <si>
     <t>n2_MSMEDICATION_any_tri1tri2only</t>
   </si>
   <si>
     <t>n3_MSMEDICATION_any_tri1tri2only</t>
-  </si>
-  <si>
-    <t>n1_MSMEDICATION_any_tri1tri2tri3</t>
   </si>
   <si>
     <t>n2_MSMEDICATION_any_tri1tri2tri3</t>
@@ -763,17 +704,55 @@
   </si>
   <si>
     <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per trimester, per pair of trimesters, or any use)</t>
+  </si>
+  <si>
+    <t>Number of pregnancies in the stratum</t>
+  </si>
+  <si>
+    <t>Experienced trimester in the pregnancies</t>
+  </si>
+  <si>
+    <t>row_identifier_4</t>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>Number of pregnancies in row identifier 4</t>
+  </si>
+  <si>
+    <t>Description of the pregnancies included in this row in terms of experienced trimester</t>
+  </si>
+  <si>
+    <t>Percentage (reference = n0)</t>
+  </si>
+  <si>
+    <t>100*n1/n0</t>
+  </si>
+  <si>
+    <t>t1 = only pregnancies that ended in first trimester
+t2 = only pregnancies that ended in second trimester
+t3 = only pregnancies that ended in third trimester
+t1+t2 = only pregnancies that ended in first or second trimester
+t1+t2+t3 = all pregnancies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1234,195 +1213,213 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1634,18 +1631,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" customWidth="1"/>
-    <col min="2" max="2" width="75.21875" style="12" customWidth="1"/>
-    <col min="3" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="12" customWidth="1"/>
+    <col min="3" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" customHeight="1">
@@ -1676,7 +1673,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="16.2" thickBot="1">
+    <row r="2" spans="1:22" ht="16.5" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1704,12 +1701,12 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="47.4" thickBot="1">
+    <row r="3" spans="1:22" ht="48" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1732,12 +1729,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="29.4" thickBot="1">
+    <row r="4" spans="1:22" ht="30.75" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>190</v>
+      <c r="B4" s="51" t="s">
+        <v>170</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1849,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1877,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -10117,28 +10114,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
@@ -10176,192 +10173,214 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="45" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2">
+    <row r="3" spans="1:11" ht="48">
       <c r="A3" s="45" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E3" s="44"/>
       <c r="G3" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120.6" thickBot="1">
+    <row r="4" spans="1:11" ht="120">
       <c r="A4" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>156</v>
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="101.4" thickBot="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:11" ht="72">
+      <c r="A5" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="30.75" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="105.75" thickBot="1">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="G7" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A6" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.4" thickBot="1">
-      <c r="A7" s="22" t="s">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B8" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="G7" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" thickBot="1">
-      <c r="A8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
       <c r="G8" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="K8" s="57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" thickBot="1">
+      <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="I9" s="22"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A10" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="D9" s="18"/>
+      <c r="G9" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="26"/>
+      <c r="I10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="17" spans="11:11" ht="14.25" customHeight="1">
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="11:11" ht="14.25" customHeight="1"/>
+    <row r="17" spans="11:11" ht="14.25" customHeight="1"/>
+    <row r="18" spans="11:11" ht="14.25" customHeight="1">
+      <c r="K18" s="21"/>
+    </row>
     <row r="19" spans="11:11" ht="14.25" customHeight="1"/>
     <row r="20" spans="11:11" ht="14.25" customHeight="1"/>
     <row r="21" spans="11:11" ht="14.25" customHeight="1"/>
@@ -11341,6 +11360,7 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11348,20 +11368,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
@@ -11372,318 +11392,318 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
@@ -12670,17 +12690,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A989"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -13681,164 +13701,186 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:G36"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="60.75" thickBot="1">
+      <c r="A1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="64" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.2" thickBot="1">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" thickBot="1">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="33" t="s">
         <v>42</v>
       </c>
@@ -13848,8 +13890,10 @@
       <c r="D10" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" thickBot="1">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="B11" s="29" t="s">
         <v>40</v>
       </c>
@@ -13859,17 +13903,19 @@
       <c r="D11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B12" s="27" t="s">
         <v>39</v>
       </c>
@@ -13879,17 +13925,19 @@
       <c r="D12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
@@ -13899,8 +13947,13 @@
       <c r="D13" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
@@ -13910,17 +13963,19 @@
       <c r="D14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B15" s="29" t="s">
         <v>40</v>
       </c>
@@ -13930,8 +13985,13 @@
       <c r="D15" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B16" s="27" t="s">
         <v>39</v>
       </c>
@@ -13941,8 +14001,13 @@
       <c r="D16" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>40</v>
       </c>
@@ -13952,139 +14017,157 @@
       <c r="D17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="68" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="28" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="67" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
@@ -14094,8 +14177,10 @@
       <c r="D26" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="29" t="s">
         <v>40</v>
       </c>
@@ -14105,17 +14190,19 @@
       <c r="D27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B28" s="27" t="s">
         <v>39</v>
       </c>
@@ -14125,17 +14212,19 @@
       <c r="D28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B29" s="27" t="s">
         <v>39</v>
       </c>
@@ -14145,8 +14234,13 @@
       <c r="D29" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B30" s="29" t="s">
         <v>40</v>
       </c>
@@ -14156,17 +14250,19 @@
       <c r="D30" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B31" s="29" t="s">
         <v>40</v>
       </c>
@@ -14176,8 +14272,13 @@
       <c r="D31" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B32" s="27" t="s">
         <v>39</v>
       </c>
@@ -14187,8 +14288,13 @@
       <c r="D32" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B33" s="29" t="s">
         <v>40</v>
       </c>
@@ -14198,78 +14304,88 @@
       <c r="D33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="60" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="60" t="s">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="60" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1">
+      <c r="A37" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="61" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
+      <c r="A38" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A18:I18"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>

--- a/i_codebooks/D5_DU_for_Template_3.xlsx
+++ b/i_codebooks/D5_DU_for_Template_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5C468-ED75-4F6C-8F58-5160C50AD9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F12D2B-6AFC-4DA7-9E37-5BCA44AD79DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>D5_DU_for_Template_3</t>
   </si>
   <si>
-    <t>Patterns of MS drug use before, during and after pregnancy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of pregnancies exposed </t>
   </si>
   <si>
@@ -736,16 +733,26 @@
 t1+t2 = only pregnancies that ended in first or second trimester
 t1+t2+t3 = all pregnancies</t>
   </si>
+  <si>
+    <t>Patterns of MS drug use before and during pregnancy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,210 +1220,214 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1734,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1846,7 +1857,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1874,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -10118,7 +10129,7 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
@@ -10174,92 +10185,92 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="45" t="s">
-        <v>134</v>
+      <c r="A2" s="77" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="48">
-      <c r="A3" s="45" t="s">
-        <v>135</v>
+      <c r="A3" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="44"/>
       <c r="G3" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="120">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>137</v>
-      </c>
       <c r="D4" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72">
-      <c r="A5" s="45" t="s">
-        <v>173</v>
+      <c r="A5" s="77" t="s">
+        <v>172</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="44"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10269,28 +10280,28 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="105.75" thickBot="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>29</v>
@@ -10298,13 +10309,13 @@
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="G8" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1">
@@ -10312,25 +10323,25 @@
         <v>28</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="18"/>
       <c r="G9" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>25</v>
@@ -10340,11 +10351,11 @@
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="46" t="s">
-        <v>167</v>
+      <c r="A11" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>25</v>
@@ -10353,10 +10364,10 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1">
       <c r="A12" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>25</v>
@@ -10365,10 +10376,10 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>25</v>
@@ -11392,318 +11403,318 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
@@ -13704,47 +13715,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="1" max="4" width="11" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="9" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60.75" thickBot="1">
       <c r="A1" s="69" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -13757,7 +13768,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
@@ -13770,10 +13781,10 @@
     </row>
     <row r="4" spans="1:9" ht="33" thickBot="1">
       <c r="A4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="66"/>
@@ -13785,10 +13796,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
@@ -13798,18 +13809,18 @@
         <v>23</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60"/>
@@ -13819,18 +13830,18 @@
         <v>23</v>
       </c>
       <c r="H6" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="63"/>
@@ -13840,18 +13851,18 @@
         <v>23</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
@@ -13861,15 +13872,15 @@
         <v>23</v>
       </c>
       <c r="H8" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
@@ -13882,26 +13893,26 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="B11" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -13909,21 +13920,21 @@
         <v>23</v>
       </c>
       <c r="H11" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -13931,21 +13942,21 @@
         <v>23</v>
       </c>
       <c r="H12" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -13955,13 +13966,13 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -13969,21 +13980,21 @@
         <v>23</v>
       </c>
       <c r="H14" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B15" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -13993,13 +14004,13 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14009,13 +14020,13 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B17" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -14023,15 +14034,15 @@
         <v>23</v>
       </c>
       <c r="H17" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -14044,7 +14055,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -14057,10 +14068,10 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="66"/>
@@ -14072,10 +14083,10 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>
@@ -14085,18 +14096,18 @@
         <v>23</v>
       </c>
       <c r="H21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
@@ -14106,18 +14117,18 @@
         <v>23</v>
       </c>
       <c r="H22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="63"/>
@@ -14127,18 +14138,18 @@
         <v>23</v>
       </c>
       <c r="H23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
@@ -14148,15 +14159,15 @@
         <v>23</v>
       </c>
       <c r="H24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -14169,26 +14180,26 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="D26" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>44</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14196,21 +14207,21 @@
         <v>23</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14218,21 +14229,21 @@
         <v>23</v>
       </c>
       <c r="H28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -14242,13 +14253,13 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B30" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14256,21 +14267,21 @@
         <v>23</v>
       </c>
       <c r="H30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B31" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -14280,13 +14291,13 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B32" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D32" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -14296,13 +14307,13 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B33" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -14310,15 +14321,15 @@
         <v>23</v>
       </c>
       <c r="H33" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
@@ -14331,7 +14342,7 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
@@ -14344,7 +14355,7 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67"/>
@@ -14357,7 +14368,7 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>

--- a/i_codebooks/D5_DU_for_Template_3.xlsx
+++ b/i_codebooks/D5_DU_for_Template_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F12D2B-6AFC-4DA7-9E37-5BCA44AD79DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF307B28-3365-49AF-93A8-EA68ADF09BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,126 +615,127 @@
     <t>Number of pregnancies from women with MS exposed to the drug specified in row_identifier_1 during the period identified by row_identifier_2 and by row_identifier_3</t>
   </si>
   <si>
+    <t>row_identifier_1 row_identifier_2 row_identifier_3</t>
+  </si>
+  <si>
+    <t>MSMEDICATION</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_0_anytri</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_0_notri</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_0_notri</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_1_anytri</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_1_anytri</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_1_notri</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_1_notri</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_any_tri1only</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_any_tri1only</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_any_tri2only</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_any_tri2only</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_any_tri1tri2only</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_any_tri1tri2only</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_any_tri1tri2tri3</t>
+  </si>
+  <si>
+    <t>n3_MSMEDICATION_any_tri1tri2tri3</t>
+  </si>
+  <si>
+    <t>n2_MSMEDICATION_0_anytri</t>
+  </si>
+  <si>
+    <t>MSMEDICATION = use of this single medication
+anydrug: use of any medication in the list</t>
+  </si>
+  <si>
+    <t>numbers to be included in Template 3: Pattern of MS DMT medication use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
+  </si>
+  <si>
+    <t>row_identifier_1_order</t>
+  </si>
+  <si>
+    <t>order to list these rows</t>
+  </si>
+  <si>
+    <t>row_identifier_2_order</t>
+  </si>
+  <si>
+    <t>row_identifier_3_order</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
+  </si>
+  <si>
+    <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per trimester, per pair of trimesters, or any use)</t>
+  </si>
+  <si>
+    <t>Number of pregnancies in the stratum</t>
+  </si>
+  <si>
+    <t>Experienced trimester in the pregnancies</t>
+  </si>
+  <si>
+    <t>row_identifier_4</t>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>Number of pregnancies in row identifier 4</t>
+  </si>
+  <si>
+    <t>Description of the pregnancies included in this row in terms of experienced trimester</t>
+  </si>
+  <si>
+    <t>Percentage (reference = n0)</t>
+  </si>
+  <si>
+    <t>100*n1/n0</t>
+  </si>
+  <si>
+    <t>t1 = only pregnancies that ended in first trimester
+t2 = only pregnancies that ended in second trimester
+t3 = only pregnancies that ended in third trimester
+t1+t2 = only pregnancies that ended in first or second trimester
+t1+t2+t3 = all pregnancies</t>
+  </si>
+  <si>
+    <t>Patterns of MS drug use before and during pregnancy</t>
+  </si>
+  <si>
     <t>tri1only = only during the 1st trimester
 tri2only = only during the 2nd trimester
 tri3only = only during the 3rd trimester
 tri1tri2only = only during the 1st and 2nd trimester (no use during the 3rd)
 tri1tri3only = only during the 1st and 3rd trimester (no use during the 2nd)
 tri2tri3only = only during the 2nd and 3rd trimester (no use during the 1st)
-anytri =use during any of the trimesters</t>
-  </si>
-  <si>
-    <t>row_identifier_1 row_identifier_2 row_identifier_3</t>
-  </si>
-  <si>
-    <t>MSMEDICATION</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_0_anytri</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_0_notri</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_0_notri</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_1_anytri</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_1_anytri</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_1_notri</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_1_notri</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_any_tri1only</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_any_tri1only</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_any_tri2only</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_any_tri2only</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_any_tri1tri2only</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_any_tri1tri2only</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_any_tri1tri2tri3</t>
-  </si>
-  <si>
-    <t>n3_MSMEDICATION_any_tri1tri2tri3</t>
-  </si>
-  <si>
-    <t>n2_MSMEDICATION_0_anytri</t>
-  </si>
-  <si>
-    <t>MSMEDICATION = use of this single medication
-anydrug: use of any medication in the list</t>
-  </si>
-  <si>
-    <t>numbers to be included in Template 3: Pattern of MS DMT medication use (for each drug individually and for any MS drug use) during pregnancy in women from the MS Pregnancy cohort</t>
-  </si>
-  <si>
-    <t>row_identifier_1_order</t>
-  </si>
-  <si>
-    <t>order to list these rows</t>
-  </si>
-  <si>
-    <t>row_identifier_2_order</t>
-  </si>
-  <si>
-    <t>row_identifier_3_order</t>
-  </si>
-  <si>
-    <t>D4_DU_prevalence_of_exclusive_use_MSmeds_in_MSpregnancy_trimesters</t>
-  </si>
-  <si>
-    <t>stratum composed by medication, use before pregnancy (yes/no/any) and using during pregnancy (stratified per trimester, per pair of trimesters, or any use)</t>
-  </si>
-  <si>
-    <t>Number of pregnancies in the stratum</t>
-  </si>
-  <si>
-    <t>Experienced trimester in the pregnancies</t>
-  </si>
-  <si>
-    <t>row_identifier_4</t>
-  </si>
-  <si>
-    <t>n0</t>
-  </si>
-  <si>
-    <t>Number of pregnancies in row identifier 4</t>
-  </si>
-  <si>
-    <t>Description of the pregnancies included in this row in terms of experienced trimester</t>
-  </si>
-  <si>
-    <t>Percentage (reference = n0)</t>
-  </si>
-  <si>
-    <t>100*n1/n0</t>
-  </si>
-  <si>
-    <t>t1 = only pregnancies that ended in first trimester
-t2 = only pregnancies that ended in second trimester
-t3 = only pregnancies that ended in third trimester
-t1+t2 = only pregnancies that ended in first or second trimester
-t1+t2+t3 = all pregnancies</t>
-  </si>
-  <si>
-    <t>Patterns of MS drug use before and during pregnancy</t>
+alltri = use during all the trimesters
+anytri = use during any of the trimesters</t>
   </si>
 </sst>
 </file>
@@ -1367,33 +1368,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,16 +1396,39 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1717,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1745,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1857,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1885,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -10132,7 +10133,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10185,7 +10186,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="58" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -10195,20 +10196,20 @@
         <v>136</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="48">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -10222,14 +10223,14 @@
       </c>
       <c r="E3" s="44"/>
       <c r="G3" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:11" ht="132">
+      <c r="A4" s="58" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -10239,38 +10240,38 @@
         <v>136</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72">
-      <c r="A5" s="77" t="s">
-        <v>172</v>
+      <c r="A5" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="44"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>173</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10280,7 +10281,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="105.75" thickBot="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -10290,18 +10291,18 @@
         <v>25</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>29</v>
@@ -10309,13 +10310,13 @@
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="G8" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1">
@@ -10330,18 +10331,18 @@
       </c>
       <c r="D9" s="18"/>
       <c r="G9" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>165</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>25</v>
@@ -10351,11 +10352,11 @@
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="78" t="s">
-        <v>166</v>
+      <c r="A11" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>25</v>
@@ -10364,10 +10365,10 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1">
       <c r="A12" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>25</v>
@@ -10376,10 +10377,10 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>25</v>
@@ -11411,7 +11412,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>109</v>
@@ -11425,7 +11426,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
@@ -11439,7 +11440,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -11453,7 +11454,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
@@ -11467,7 +11468,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
@@ -11481,7 +11482,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -11495,7 +11496,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>115</v>
@@ -11509,7 +11510,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -11523,7 +11524,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>117</v>
@@ -11537,7 +11538,7 @@
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
@@ -11551,7 +11552,7 @@
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -11565,7 +11566,7 @@
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>120</v>
@@ -11579,7 +11580,7 @@
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>121</v>
@@ -11593,7 +11594,7 @@
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -11607,7 +11608,7 @@
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>123</v>
@@ -11621,7 +11622,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>124</v>
@@ -11635,7 +11636,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -11649,7 +11650,7 @@
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>126</v>
@@ -11663,7 +11664,7 @@
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>127</v>
@@ -11677,7 +11678,7 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>128</v>
@@ -11691,7 +11692,7 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>129</v>
@@ -11705,7 +11706,7 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>130</v>
@@ -13731,17 +13732,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60.75" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="70"/>
+      <c r="A1" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="63"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>31</v>
@@ -13754,40 +13755,40 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="33" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
       <c r="G4" s="31"/>
@@ -13798,98 +13799,98 @@
       <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
       <c r="G6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
       <c r="G8" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B10" s="33" t="s">
@@ -13904,7 +13905,7 @@
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="30.75" thickBot="1">
       <c r="B11" s="29" t="s">
         <v>39</v>
       </c>
@@ -13920,10 +13921,10 @@
         <v>23</v>
       </c>
       <c r="H11" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1">
@@ -13942,10 +13943,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1">
@@ -13980,10 +13981,10 @@
         <v>23</v>
       </c>
       <c r="H14" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1">
@@ -14034,47 +14035,47 @@
         <v>23</v>
       </c>
       <c r="H17" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="31"/>
@@ -14085,11 +14086,11 @@
       <c r="A21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="52" t="s">
@@ -14106,11 +14107,11 @@
       <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="52" t="s">
@@ -14127,11 +14128,11 @@
       <c r="A23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="52" t="s">
@@ -14148,11 +14149,11 @@
       <c r="A24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="52" t="s">
@@ -14166,17 +14167,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="33" t="s">
@@ -14328,59 +14329,64 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A37:I37"/>
@@ -14397,11 +14403,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
